--- a/Excel/AES 161-in-1 V3.xlsx
+++ b/Excel/AES 161-in-1 V3.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3689" uniqueCount="1722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3691" uniqueCount="1722">
   <si>
     <t>Pin</t>
   </si>
@@ -4439,6 +4439,9 @@
     <t>P1-P3</t>
   </si>
   <si>
+    <t>RST#</t>
+  </si>
+  <si>
     <t>CP1_97</t>
   </si>
   <si>
@@ -4512,9 +4515,6 @@
   </si>
   <si>
     <t>wr. disable</t>
-  </si>
-  <si>
-    <t>RST#</t>
   </si>
   <si>
     <t>no rst</t>
@@ -5863,7 +5863,7 @@
     <xdr:ext cx="3105150" cy="3771900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5891,7 +5891,7 @@
     <xdr:ext cx="2247900" cy="2066925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5924,7 +5924,7 @@
     <xdr:ext cx="1924050" cy="9963150"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5952,7 +5952,7 @@
     <xdr:ext cx="1924050" cy="9963150"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6008,7 +6008,7 @@
     <xdr:ext cx="1924050" cy="9963150"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6041,7 +6041,7 @@
     <xdr:ext cx="11239500" cy="8086725"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6074,7 +6074,7 @@
     <xdr:ext cx="8620125" cy="5867400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6102,7 +6102,7 @@
     <xdr:ext cx="7077075" cy="4333875"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6128,14 +6128,14 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>-114300</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2838450" cy="7134225"/>
+    <xdr:ext cx="2428875" cy="7134225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6168,7 +6168,7 @@
     <xdr:ext cx="9372600" cy="6629400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6201,7 +6201,7 @@
     <xdr:ext cx="4352925" cy="4524375"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6234,7 +6234,7 @@
     <xdr:ext cx="4514850" cy="7753350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6262,7 +6262,7 @@
     <xdr:ext cx="4667250" cy="5962650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28283,7 +28283,10 @@
       <c r="B7" s="9">
         <v>3.0</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="22" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>108</v>
       </c>
     </row>
@@ -28302,7 +28305,10 @@
       <c r="B9" s="9">
         <v>5.0</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="22" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>108</v>
       </c>
     </row>
@@ -28325,7 +28331,7 @@
         <v>75</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="12">
@@ -28380,7 +28386,7 @@
         <v>217</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="17">
@@ -28391,7 +28397,7 @@
         <v>215</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="18">
@@ -28424,7 +28430,7 @@
         <v>1366</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="21">
@@ -28432,7 +28438,7 @@
         <v>17.0</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>338</v>
@@ -28481,7 +28487,7 @@
         <v>22.0</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>398</v>
@@ -28713,13 +28719,13 @@
         <v>1370</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="K44" s="6" t="s">
         <v>1372</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="45">
@@ -29114,7 +29120,7 @@
         <v>140</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="I64" s="12"/>
     </row>
@@ -29126,22 +29132,22 @@
         <v>131</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="H65" s="29" t="s">
         <v>1370</v>
       </c>
       <c r="I65" s="29" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="J65" s="29" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="K65" s="34" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="L65" s="34" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="66">
@@ -33323,11 +33329,11 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="86" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D1" s="12"/>
     </row>
@@ -33354,7 +33360,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B5" s="9">
         <v>1.0</v>
@@ -33394,7 +33400,7 @@
         <v>148</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="8">
@@ -33405,7 +33411,7 @@
         <v>140</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="9">
@@ -33416,7 +33422,7 @@
         <v>131</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="10">
@@ -33427,7 +33433,7 @@
         <v>119</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="11">
@@ -33438,7 +33444,7 @@
         <v>102</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="12">
@@ -33449,7 +33455,7 @@
         <v>238</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="13">
@@ -33460,7 +33466,7 @@
         <v>235</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="14">
@@ -33471,7 +33477,7 @@
         <v>232</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="15">
@@ -33496,7 +33502,7 @@
         <v>173</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>41</v>
@@ -33513,7 +33519,7 @@
         <v>1.0</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="18">
@@ -33521,7 +33527,7 @@
         <v>14.0</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>1498</v>
+        <v>1473</v>
       </c>
       <c r="D18" s="9">
         <v>1.0</v>
@@ -33726,7 +33732,7 @@
         <v>32.0</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="D36" s="9">
         <v>0.0</v>
@@ -33749,7 +33755,7 @@
         <v>34.0</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D38" s="9">
         <v>0.0</v>
@@ -34242,7 +34248,7 @@
         <v>1.0</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="I75" s="9"/>
     </row>
@@ -34251,7 +34257,7 @@
         <v>14.0</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>1498</v>
+        <v>1473</v>
       </c>
       <c r="D76" s="9">
         <v>1.0</v>
@@ -34269,7 +34275,7 @@
         <v>256</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>41</v>
@@ -34498,7 +34504,7 @@
         <v>32.0</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>1539</v>
@@ -34520,7 +34526,7 @@
         <v>34.0</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>1540</v>
@@ -40655,7 +40661,7 @@
         <v>1691</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>1692</v>
@@ -40690,7 +40696,7 @@
         <v>1656</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="E49" s="94" t="s">
         <v>1332</v>
